--- a/data/hotels_by_city/Dallas/Dallas_shard_227.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_227.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>doublecharged2018</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Arrived early in the morning, for a four night stay. They gave us a single handicapped accessible room instead of the reserved suite with pullout bed. Clerk 1 claimed the reservation specified the wrong room type. After showing her the reservation, she admitted it was a mistake, and found a second room so the kids would have somewhere to sleep. Second room had not been cleaned, trash was not taken out. Woke up in the morning after four hours of sleep, spoke to Team Lead. TL promised to move us to a room of the type we reserved in a few hours. Went to old room to get our things, room key no longer worked. Moved into room, confirmed to TL we had a four day prepaid reservation. Went to do our family visiting. Returned, room key no longer worked. Asked for pillows, there are no extra pillows. Asked desk to fix wifi access, they reset the room number. Day 2, get a call from the front desk. TL needed to confirm we had a four day reservation again. Emailed reservation confirmation to TL. Asked clerk 2 for pillows, there are no pillows. Have to have key reset. Have to get wifi fixed. Kids are sad and don't want to stay. Day 3, received call from TL, wants to know why we haven't already checked out. Explain again about the four day reservation. Get back from visiting family. Key doesn't...Arrived early in the morning, for a four night stay. They gave us a single handicapped accessible room instead of the reserved suite with pullout bed. Clerk 1 claimed the reservation specified the wrong room type. After showing her the reservation, she admitted it was a mistake, and found a second room so the kids would have somewhere to sleep. Second room had not been cleaned, trash was not taken out. Woke up in the morning after four hours of sleep, spoke to Team Lead. TL promised to move us to a room of the type we reserved in a few hours. Went to old room to get our things, room key no longer worked. Moved into room, confirmed to TL we had a four day prepaid reservation. Went to do our family visiting. Returned, room key no longer worked. Asked for pillows, there are no extra pillows. Asked desk to fix wifi access, they reset the room number. Day 2, get a call from the front desk. TL needed to confirm we had a four day reservation again. Emailed reservation confirmation to TL. Asked clerk 2 for pillows, there are no pillows. Have to have key reset. Have to get wifi fixed. Kids are sad and don't want to stay. Day 3, received call from TL, wants to know why we haven't already checked out. Explain again about the four day reservation. Get back from visiting family. Key doesn't work. Clerk 3 laughs about how silly it is that there are no pillows. After five minutes in the room, call from front desk. Bill due for 150 for two nights, on bill directly under the line item showing we paid for four nights. Clerk 3 is very sorry but nobody knows how to fix billing issue. Suggests I call corporate. Guest services is closed for the day. Mary from the international call center refuses to give ID number or reference number so that she can't be identified. She can't take my complaint but offers to pretend to. Flight out at 5 am tomorrow. Spend evening doing as the desk card suggested. "Tell the world about your stay".  So recap: incompetent staff, screwed up reservation, wrong room, dirty rooms, no pillows or dishes, complimentary breakfast has nothing left by 8 every morning, dryers out of order, hall lights flicker like an insane asylum, repeated keycard problems, double charged, and laughed at when suggesting paying twice for the same night is not normal. Will not stay again.More</t>
   </si>
   <si>
+    <t>Nick A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r567374679-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>The worst display of customer service I’ve ever seen! I booked a reservation via Priceline for a room for 3/18/2018 until 3/20/2018. I received an email on 3/5/2018 from “HotelPlanner” that my reservation was “Confirmed.” My girlfriend and I drove 15 hours from Arizona and arrived around midnight on 3/19/2018. We walk into the hotel to find no one at the front desk. I could hear someone watching or listening to something round around the wall by the front desk. Knowing someone had to have heard us walk in, I rang the bell they have on the counter. A lady named Sabrina comes from behind the wall. As if I was annoying her, she asks if she could help me. I told her I was checking in and provided her my last name. Sabrina proceeded to tell me I booked with Priceline and they sold me a room they didn’t have. Sabrina tells me, despite the parking lot being empty, they are booked. I tried to explain to her how I paid for this room for two nights, got a confirmation email, had my money taken out of my account, that’s it is midnight, and she says call Priceline as she proceeds to walk away from us and go back behind the wall. This was the worst customer service I have ever had. Sabrina had no human decency let alone customer service. More</t>
   </si>
   <si>
+    <t>mmcfadden17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r563044042-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I've been staying at the Extended Stay America in Plano Dallas Medical Center for over a week now.  I can't begin to explain the AMAZING customer service I have received in my short time staying here.  The team of Khan, Anna, Tre, Hamet, Sabrina, and Precilia have taken such good care of me!  I've managed hotels for many years and I know how important a great team is towards creating the best guest experience.  Whenever I'm in the Plano area I will only stay at this location!  Truly great service!!!  Thanks to allMore</t>
   </si>
   <si>
+    <t>Mojowater</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r554127102-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>The smell of the hotel was awful. I'm not sure what it was but the hallways and the room smelled terrible. I walked the property to verify it was not just my hallway or room and the whole hotel smelled disgusting. Also, I asked for kitchen items and was given a pot, a frying pan, a plate, spoon, fork, knife and plate. Also, a spatula, but I couldn't use it because it was so flimsy as to be ineffective. I had to go buy a cheap-as-I-could knife, cutting board, spatula, and cooking spoon just to have basic cooking items available. This is not acceptable when the hotel says it will stock these items. On the upside, I found the front desk staff amiable. The room was also clean despite the absolutely foul smell. Overall, I would never recommend this hotel, and have notified the owner of my company to never send anyone to this extended stay location again.More</t>
   </si>
   <si>
+    <t>liangn2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r547449084-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Good for the price. Large room with separate kitchen, living area and sleeping area. I traveled alone, but the room is enough for a family of 4. Would return again. Price was good. Little far from 75.More</t>
   </si>
   <si>
+    <t>heylie393</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r545793196-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Hamet at the front desk was super sweet and very helpful. Everyone was friendly and made it feel kinda homey. Very clean and well kept throughout the building. The room was awesome!! Just a laid back environment! Loved staying hereMore</t>
   </si>
   <si>
+    <t>johntwestbrook7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r538279657-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>If you ask for something that is offered by Extended stay America you receive the bare minimum if you are lucky. Welcome is not exactly the feeling you get when you are there. Unfortunate because it could really be a great place to stay. More</t>
   </si>
   <si>
+    <t>Mssmith43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r536649069-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>Terea, was the best representation of Customer Service .  She was very accommodating, very friendly, Offered a smile, and a great attitude !!  The room wasn’t what I thought it would be.  But it a clean!! If you stay more than 7 days you will get a room cleaning, but only by request. But overall. A decent stay for the price I paid!!More</t>
   </si>
   <si>
+    <t>Yucoya G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r535905117-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>I have stayed here several times. Rooms are clean. Front desk clerk Terea is always so helpful. Always offers her assistance with anything i may need. Will definitely book here again. The price is great and the rooms are cleanMore</t>
   </si>
   <si>
+    <t>Vaughn P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r531134231-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -423,6 +453,9 @@
     <t>Having a great stay, Both Terea and Hemet are awesome and have been most helpful!I would definitely recommend this hotel to anyone looking for a comfortable stay!  Being a trucker and being over the road long periods its nice to be able to check in somewhere that I know my rig won't be messed with or my slumber disturbed!More</t>
   </si>
   <si>
+    <t>Renissa P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r531061590-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -444,6 +477,9 @@
     <t>We have really been very pleased with our stay here...everything is clean and enjoyable and the staff is outstanding! The room is perfect with it's full kitchen ..including a full oven...feels like your own appartment...Terea Wilson has been greatly accommodating! From the first time I called she has been extremely polite,respectful and always makes sure you are very well taken care of....thank you Terea!!!I would definitely recommend this location over all the rest in this area....More</t>
   </si>
   <si>
+    <t>Real M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r530375323-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -471,6 +507,9 @@
     <t>hotel is good. they can work on cleanliness..at front desk terea wilson was helpful.rooms are good and airy. its a good budget hotel with all basic amenities. parking space is available which is added advantageMore</t>
   </si>
   <si>
+    <t>Priscilla T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r530372093-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -489,6 +528,9 @@
     <t>Very attentive, astonishing personality, helped me with any questions I had to my satisfactory, and was overall just very welcoming. The place is very clean, manager is onsite everyday, maintenance is up to par and they are pet friendly which was a plus for me.More</t>
   </si>
   <si>
+    <t>Terea W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r530369409-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -501,6 +543,9 @@
     <t>Hello I am in 106 I love the people they speak every time Terea was so sweet to come we love this place we will be back this feel like home to us anything we need and ask for they make sure we get it they always make sure the room is clean I just love it More</t>
   </si>
   <si>
+    <t>camessia69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r530369277-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -513,6 +558,9 @@
     <t>While we have been staying here. The service has been amazing. The front desk clerk "Teresa Wilson" has gone above and beyond being helpful to me and my family. We need more people like her working for your company.                                 Camessia Leaks                                       #108 More</t>
   </si>
   <si>
+    <t>Derek C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r522384504-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -537,6 +585,9 @@
     <t>Following is summary list of what went wrong:• Entire hotel smelled of sour, rotten garbage smell.*• Both "smoke free" guestrooms smelled of smoke and trash.• The toilet seat did not look clean at all.• In one of the room assigned, entry light is broken, one of the lamp shade is down with no bulb, room doesn't seem ready for guest.• Pillow cases were stained• Both kitchen were completely empty. Some of the cabinets were open, and the microwave was opened in one of the room. It looked as if someone ransacked it.  No coffee maker, ice bucket, etc.• Hotel Wifi was questionable. The available connections did not look like an official connection. Most are private hotspots. I would not trust connecting to them.• There were no extra linen for the pull out bed.• In the morning during check out time, there were no on at the counter. One guest was waiting for at least 20 minutes, eventually left without help.We booked 4 nights for an emergency family medical issue. End up spending only one night. Hotel management refused to refund.Not looking for a 4 star full service hotel. However for sanitary reason alone, I would not recommend anyone coming here. Staffs seems friendly and genuinely tries to help. Management issue apparent.More</t>
   </si>
   <si>
+    <t>536jaidew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r509070792-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -564,6 +615,9 @@
     <t>This had to be the best service I've experienced with any hotel including 4/5 star locations. My boyfriend and I just needed somewhere to stay for a few days and we got lucky with this one. Hamet, Khan and Tre went above and beyond to satisfy our needs! The room we were placed in was very spacious and we enjoyed being able to cook. Anything we needed was provided. Will book again when in the area! More</t>
   </si>
   <si>
+    <t>RGonzales2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r505306164-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -591,6 +645,9 @@
     <t>I stayed here for about 2 months. The Hotel was clean, staff was very friendly, affordable rates and I felt like I was at home. The General Manager Hamet Sy is super nice and knows how to treat his guests. I would definitely recommend this hotel and would definitely stay here again. Thank you extended stay for making my trip a pleasurable one!More</t>
   </si>
   <si>
+    <t>Brooklyn B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r500888092-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -618,6 +675,9 @@
     <t>I was in town to visit a relative in the Hospital nearby and the management was very nice &amp; helpful and accommodated my needs. I highly recommend this hotel if you are in the area. The room I had originally booked was not ready when I arrived so he was so nice as to give me the biggest &amp; most comfortable room they had...More</t>
   </si>
   <si>
+    <t>markanthonyc764</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r497001280-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -645,6 +705,9 @@
     <t>Room was not ready at check in. Not stocked and smell of curry permeated everything. Air conditioner very noisy. Grab and go breakfast just granola bars and coffee. Great location and outside attractiveMore</t>
   </si>
   <si>
+    <t>Tomas A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r488156732-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -669,6 +732,9 @@
     <t>It will be one year the first of June (2017) since I have checked in.  Since arriving I have always felt comfortable here, however, there has been a huge turn over in staffing.  For someone who is a resident and not a guest this can be annoying at times because every time a new person starts they don't know your history and as a resident I take little things for-granted like having the front desk or housekeepers knowing me by name or if I need something from the front desk and they don't know me I have to show ID to pick up a package.  I'll just chalk it up to the "nomad minimalist" lifestyle.  I must admit a new General Manager was brought in about 2-3 months ago and I have seen some well needed improvements to the property.  The landscaping has been kept up (except for the dog poo everywhere, yuck).  I have dogs myself and always pick up after my dogs, I blame irresponsible pet owners, however, it is nasty to see it outside all the time.  They also recently replaced the outside lights, love it very bright and secure feeling (although I have never heard of any issues with outside safety).  The rooms are very comfortable and have full kitchens.  My room had a new counter put in not long ago which was very nice!  I take care of my suite and never have any maintenance...It will be one year the first of June (2017) since I have checked in.  Since arriving I have always felt comfortable here, however, there has been a huge turn over in staffing.  For someone who is a resident and not a guest this can be annoying at times because every time a new person starts they don't know your history and as a resident I take little things for-granted like having the front desk or housekeepers knowing me by name or if I need something from the front desk and they don't know me I have to show ID to pick up a package.  I'll just chalk it up to the "nomad minimalist" lifestyle.  I must admit a new General Manager was brought in about 2-3 months ago and I have seen some well needed improvements to the property.  The landscaping has been kept up (except for the dog poo everywhere, yuck).  I have dogs myself and always pick up after my dogs, I blame irresponsible pet owners, however, it is nasty to see it outside all the time.  They also recently replaced the outside lights, love it very bright and secure feeling (although I have never heard of any issues with outside safety).  The rooms are very comfortable and have full kitchens.  My room had a new counter put in not long ago which was very nice!  I take care of my suite and never have any maintenance issues.  The suites are easy to "make your own" if you stay for an extended period of time.  For the most part I feel safe here, occasionally there are some questionable guests but they don't seem to be here very long (this seems to be getting better as well).  On the reverse side there are some great residents who have lived here for years and it is like having real neighbors!  Exercise room was recently upgraded with new equipment and the outside pool area is great to enjoy in the evenings.  I am hoping that the washers/dryers are maybe upgraded someday they are hit and miss on whether they work as designed (be nice if they took paper money as well).  In closing I must comment on the team that works here.  Hamet really does seem to care about the property and residents/guests.  Also a shout out to Tre, Tony, and Carrie for always being kind and caring day after day.More</t>
   </si>
   <si>
+    <t>missladyj21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r485327080-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -693,6 +759,9 @@
     <t>I was a little skeptical about this hotel at first but now its the only hotel in the area I would stay in. I've gotten a chance to get to know the staff and they are great. They make sure we have everything we need for our stay. Manager is really nice as well.More</t>
   </si>
   <si>
+    <t>petercawthon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r485056287-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -711,6 +780,9 @@
     <t>The room was clean and had the basics we needed to  cook with. The location was very close to our doctor and was very quiet. The staff was very attentive to our needs. Thanks to: Hamet Sy, Tre, Khan, Tony, Kisha and the rest of the staff. They were always very friendly and helpful. More</t>
   </si>
   <si>
+    <t>aadunlapesq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r472902330-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -729,6 +801,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>1driver8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r466806633-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -744,6 +819,9 @@
     <t>Stayed here because I had a family member staying in a nearby hospital. Location was very convenient - you can get from the hotel to the hospital by driving through the parking lot, without even venturing onto the roads. Housekeeping service was non-existent, I had to ask the front desk more than three times to even get basic service like clean towels. "Breakfast" was weak coffee and pre-packaged muffins. There are other budget hotels just as close that may have better service.</t>
   </si>
   <si>
+    <t>TheMrsRockstar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r463493867-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -771,6 +849,9 @@
     <t>The room was acceptably clean, but there was a missing drawer in the kitchen and no water pressure in the shower. Definitely feels a little old and worn down. The service was excellent though and all the employees were friendly and helpful!More</t>
   </si>
   <si>
+    <t>maria i</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r455280717-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -798,6 +879,9 @@
     <t>Love this place! Everyone was so friendly! Great customer service. I was in need for some relaxation after some time in the hospital, from the beginning people treated me with kindness and respect.  Front desk guy was hilarious and very patient with me.More</t>
   </si>
   <si>
+    <t>Ashley S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r455277508-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -816,6 +900,9 @@
     <t>The staff was very nice. My room was clean. The manager was so nice. if i had any questions they helped me. i highly suggest staying here. if you want an affordable place to stay with the best staff stay hereMore</t>
   </si>
   <si>
+    <t>jennifer p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r455275342-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -831,6 +918,9 @@
     <t>Been to many hotels her in Dallas, but I have to admit that ESA in Plano in an amazing hotel. Great Value to start with, when checking in the customer service is perfectly greeted and explained. They gave me information in detailed about my stay and what my room and expectations consisted of (no surprises). Great parking availability. Very well organized staff and cleaning compartments. My room was well kept clean while my week of stay. Staff was very generous and friendly. Clean towels and sheets every day. Manager spoke to me in a nice greet when checking out and in of the hotel. Nicest hotel I must admit lobby and halls well decorated and cleaned. Thanks for making my visit very friendly. Will recommend this hotel and will be returning soon.More</t>
   </si>
   <si>
+    <t>thermanhouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r455198516-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -846,6 +936,9 @@
     <t>Kesha was more than helpful during my stay at your location.  She's very knowledgeable and extremely helpful, she appeared to know her way around the establishment and made me feel very warm and comfortable during my stay with your hotel.  She was so warm that I assure when I return to Plano, TX I will ensure to stay in your hotel again!!!! Her overall knowledge is rated at a 10!More</t>
   </si>
   <si>
+    <t>lauraduran54</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r455193991-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -861,6 +954,9 @@
     <t>I had a Amazing Experience at this hotel! From the time I walked in staff was very Friendly! Especially the manager Antonio amazing hospitality we got from him from the beginning of the stay till the day we checked out! I definitely will come back to this hotel when I visit the dfw again! Rooms were very clean and when we needed something they would bring it to us with no problem at all!!! Love this hotel and had a amazing experience!!!!More</t>
   </si>
   <si>
+    <t>tmdiggs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r448152005-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -885,6 +981,9 @@
     <t>The lobby and halls reeked of marijuana.  The room was not clean and the refrigerator did not work.  My daughter and her children were then moved to another room because this was "not up to par" according to the front desk clerk.  The second room did not have a working latch.  The front desk said that lock was not needed and it was safe to stay there.  I do not think so.  She ended up looking for another hotel and leaving just after arrival.More</t>
   </si>
   <si>
+    <t>aloiii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r435010785-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1011,9 @@
     <t>This is without a doubt the worst hotel that I've ever stayed at in America. The staff pictures make the place look like a gem, it's far far from that, dirty, stinky, sticky hotel. Room stock was horrible, no housecleaning service (think you pay extra for that) no coffee in room, give you a pot(if you ask for one) but no coffee packs to make coffee. no kitchen utensils at all, none, unless you ask and then you get nothing to wash any dish you may use so what good is that? just a horrible experience.More</t>
   </si>
   <si>
+    <t>staffinspection701</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r434941308-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1035,9 @@
     <t>Staff was rude and this place is the most filthy hotel that exist. It looks horrible on the outside and the inside is WORSE. Hallways Stink like old trash starting with the elevator. There's holes on the walls, holes in the ceilings, no landscaping, flea infested, bed bugs!! Omg!!!!!! There's mold in the shower, broken doors, garbage in and out of the hotel! Still water on pool cover with mosquito eggs and mold growing! Dirty carpet in halls and rooms. Trash piles up so high on the trash cans everywhere and it stinks I saw maggots in the garbage can. I saw a possum in the parking lot by the trash bin. They have broken doors that won't open to get into the building they had a branch to keep it open. I saw a homeless man sneak in to sleep in the stairway. I saw prostitutes coming in &amp; out all night and a Cop stopped a guy turning into the hotel and he got busted for selling drugs in the hotel. Why oh why do they allow this? Unfortunately because I had already booked my stay for the night I stayed but believe me it was HELL! I will NEVER STAY here again. I asked to speak to the manager the front desk said he quit 4 days ago! I don't blame him. Help this Place somebody because it's the worst I've ever seen if you ask me...Staff was rude and this place is the most filthy hotel that exist. It looks horrible on the outside and the inside is WORSE. Hallways Stink like old trash starting with the elevator. There's holes on the walls, holes in the ceilings, no landscaping, flea infested, bed bugs!! Omg!!!!!! There's mold in the shower, broken doors, garbage in and out of the hotel! Still water on pool cover with mosquito eggs and mold growing! Dirty carpet in halls and rooms. Trash piles up so high on the trash cans everywhere and it stinks I saw maggots in the garbage can. I saw a possum in the parking lot by the trash bin. They have broken doors that won't open to get into the building they had a branch to keep it open. I saw a homeless man sneak in to sleep in the stairway. I saw prostitutes coming in &amp; out all night and a Cop stopped a guy turning into the hotel and he got busted for selling drugs in the hotel. Why oh why do they allow this? Unfortunately because I had already booked my stay for the night I stayed but believe me it was HELL! I will NEVER STAY here again. I asked to speak to the manager the front desk said he quit 4 days ago! I don't blame him. Help this Place somebody because it's the worst I've ever seen if you ask me they should just close it down. You don't believe me look at the pictures I uploaded warning stay away. False advertising by the way no meeting room exist here! The pictures online are from like 20 years ago. Location Extended Stay Plano Tx. 4636 W. Plano Pkwy.Plano, Tx. 75093No Manager?! Really? Antonio Diaz check me in so rude. A a guy named D'Shawn was worse. He wouldn't give me a refund so I could stay somewhere else.More</t>
   </si>
   <si>
+    <t>Ashley T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r399514131-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -960,6 +1065,9 @@
     <t>Came down to visit Dallas over the weekend.  Enjoyed the Dallas zoo  with my husband and kids. Nice clean hotel great staff. THANKS TIA, KENDRICK!!!!! Well return in 2 weeks to visit six flags with my familyMore</t>
   </si>
   <si>
+    <t>SashaTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r394453782-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1092,9 @@
     <t>Check in at 3 but room wasn't ready until 5:30. Was told hotel had been renovated. Maybe newish carpet but all of the appliances were ancient. Kitchen did not even have a cup. You have to go ask for every single thing. Super noisy above so ask for top floor. Sounded like parties or gymnastics class going on every night. People sitting around smoking all the time by front and back door. They put us in a handicap room so the shower was leaking all over every time we used it. Just seems dumpy and trashy. I supposedly had 30% off and still ended up paying $90/nt...no discount for longer stay. The front desk staff and housekeeping are very friendly and will give you whatever you ask for but you have to ask for everything.More</t>
   </si>
   <si>
+    <t>Agent_Gillispie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r386400095-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1122,9 @@
     <t>Overall, this was an awesome experience in a good location especially for shopping and eating. Staff was exceptional and made my family's stay very enjoyable. Rooms and the pool area were always very clean and free of mess. I would definitely recommend this hotel. I was greatly relieved that they allowed my pet to travel with me minus the high prices that other chains charge. Just in that one fact, I knew that I had found a wonderful place to stay. It was a great experience, I will definitely be back.More</t>
   </si>
   <si>
+    <t>E B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r381762428-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1149,9 @@
     <t>If you are in town for business purposes avoid Extended Stay America hotels. Their WiFi says frree WiFi, but it is less than 1 Mbps. This makes loading most websites very difficult. they offer an upgrade for a fee, but even the upgrade is less than 5 Mbps. Which makes streaming videos or making skype calls very hard. Besides the WiFi, the accomodations is average at best. The hallways has this distinct oder, I can't explain it. It's not a good oder. It might be caused by the trash found at the end of the hallway. Guests leave their trash from their rooms at the trashcan daily, and the hotel does not remove it until the end of the night. So by noon you will see an overflowing garbage bin that is not only unsightly but also may be the cause of the oder in the hallway. The rooms are average. Stains on the couch. I am glad I brought my own towels. The provided towels looked worn out. Bed sheets were also not in the best conditions. Summary: Avoid if you can, especially if you need WiFi access.More</t>
   </si>
   <si>
+    <t>Areli H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r381238321-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1179,9 @@
     <t>The location was very clean and my entire stay was comfortable. The customer service was through the roof and the assistant manager (Antonio) was very attentive. I would definitely recommend this location!More</t>
   </si>
   <si>
+    <t>malvarez9325</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r381008314-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1080,6 +1200,9 @@
     <t>Everything was easy going. The morning guy (hispanic) was able to check me in right away. He was very helpful with plenty of information for me. I only stayed for the weekend because of work but my room was clean and the staff was very friendly upon my departure .More</t>
   </si>
   <si>
+    <t>Jay E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r381004648-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1218,9 @@
     <t>Stayed at medical city for 2 nights and had the pleasure of meeting Kendrick,Antonio very nice and friendly welcomed me like family. I will be returning in July to go back to Baylor and I would love 314 again until then ThanksMore</t>
   </si>
   <si>
+    <t>Jesus P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r380990794-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1110,6 +1236,9 @@
     <t>The room was very well maintained, and fitted every need I could think of. Fresh towels and a made bed every time on time. An assistant manager on standby for any situation that arises, and is considerate. Handling with professional customers assistance 24/7. The location is ideal for business and personal leisure.More</t>
   </si>
   <si>
+    <t>Xavier J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r379962051-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1257,9 @@
     <t>Everything about the stay here was great, the staff was very friendly and helpful at check-in, the room was clean, well stocked with towels, and toiletries as to be expected, very quiet, even when the hotel is full to capacity, you will rarely hear anyone... It is well located, literally next door to the Heart hospital, shopping, dining, etc all within a few miles... I had a situation with my reservation, I had booked at a different extended stay location, but the day of check in my car broke down and I had no way to get to the location I had booked at, the staff was very helpful and worked everything out for me, I couldnt ask for ANY better extended stay experience! Kendrick the manager is amazing, and Antonio too!More</t>
   </si>
   <si>
+    <t>Cortney N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r378098606-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1278,9 @@
     <t>My neighbors where very loud when I asked the front desk to move I was told that I had to wait till the next morning to talk to the manager then the next morning I was told I could have a smaller room or a smoking room and that was not an option as I had a two year old and a eight year old with me note if you are gonna stay here stay away from the room next to the stairs if you have small children.More</t>
   </si>
   <si>
+    <t>Steve T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r366146808-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1308,9 @@
     <t>Well built facility, rooms are quiet and it's hard to hear other guests. I requsted a top floor and due to the capacity I ended up on the middle floor.  Room was spacious and the bed/pillows were adequate.  Kitchen actually had an oven however it was filthy with grease dripping out of the bottom.  Staff were friendly and seemed genuine. Very pleasant stay. I paid for the upgraded WiFi due to the massive amounts of uploads I do for work, I did not notice any difference in speed from other Extended Stay's WiFi that is free, might have got taken on the upgrade.More</t>
   </si>
   <si>
+    <t>13bedbugz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r338025100-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1336,9 @@
   </si>
   <si>
     <t>Well folks after reading the reviews on here I was kinda dreading coming here after priceline booked me here...... But as with any other business a change in staff can make a huge difference.  Kendrick You Rock!  And your Assistant is just as awesome.Make cars battery was dead and his assistant went and jumped off my car.....he sat in the cold while it charged and his upbeat happy personality brought a smile. Check in was quick and a breeze, Room was clean and comfortable.... like a tiny apartment...full kitchen.  Now folks I read the reviews and I must explain one thing,  an extended stay is different from a motel/hotel......when going to extended stays you should feel like your moving to an apartment for a short period of time. Yes it is a no frills,  but I bring things that make me feel at home....my own towels and sheets, lighting, a couple of my own art pieces.  Enough said I would stay here anytime.More</t>
+  </si>
+  <si>
+    <t>blazejbla</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r330325852-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
@@ -1723,43 +1864,47 @@
       <c r="A2" t="n">
         <v>35311</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1771,56 +1916,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35311</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>40190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1832,56 +1981,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35311</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1897,56 +2050,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35311</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1968,56 +2125,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35311</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2039,56 +2200,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35311</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2110,56 +2275,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35311</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2181,56 +2350,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35311</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2242,56 +2415,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35311</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2303,56 +2480,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35311</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2364,56 +2545,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35311</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>136165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2425,56 +2610,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35311</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2492,56 +2681,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35311</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2553,56 +2746,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35311</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2614,56 +2811,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35311</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2675,56 +2876,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35311</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>35722</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2740,56 +2945,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="X17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35311</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2811,56 +3020,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35311</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136171</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2872,56 +3085,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35311</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>209</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2933,56 +3150,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="X20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Y20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35311</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136173</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3004,56 +3225,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="X21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="Y21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35311</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136174</v>
+      </c>
+      <c r="C22" t="s">
+        <v>229</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="J22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3069,56 +3294,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="X22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="Y22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35311</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>238</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="J23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="K23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="L23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3136,47 +3365,51 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="X23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35311</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136176</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
@@ -3193,56 +3426,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="X24" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="Y24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35311</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>136177</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3262,50 +3499,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35311</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136178</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -3325,50 +3566,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35311</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>136179</v>
+      </c>
+      <c r="C27" t="s">
+        <v>267</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="J27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3386,56 +3631,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="X27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="Y27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35311</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136180</v>
+      </c>
+      <c r="C28" t="s">
+        <v>277</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="J28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="O28" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3453,56 +3702,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="Y28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35311</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C29" t="s">
+        <v>287</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="J29" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O29" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3520,56 +3773,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="X29" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35311</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>77015</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="O30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3585,56 +3842,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="X30" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35311</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136181</v>
+      </c>
+      <c r="C31" t="s">
+        <v>300</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="J31" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="L31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3650,56 +3911,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="X31" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="Y31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35311</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136182</v>
+      </c>
+      <c r="C32" t="s">
+        <v>306</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="J32" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3717,56 +3982,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="X32" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35311</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>312</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="J33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="L33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -3784,56 +4053,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="X33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="Y33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35311</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136184</v>
+      </c>
+      <c r="C34" t="s">
+        <v>321</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="K34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="L34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3849,56 +4122,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="X34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="Y34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35311</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136185</v>
+      </c>
+      <c r="C35" t="s">
+        <v>331</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="J35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="K35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="O35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3914,56 +4191,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="X35" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="Y35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35311</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>4737</v>
+      </c>
+      <c r="C36" t="s">
+        <v>339</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="J36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="L36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -3981,56 +4262,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="X36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="Y36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35311</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136186</v>
+      </c>
+      <c r="C37" t="s">
+        <v>349</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="J37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="K37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="L37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="O37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4048,56 +4333,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="X37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35311</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136006</v>
+      </c>
+      <c r="C38" t="s">
+        <v>358</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="J38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="L38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4113,56 +4402,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="X38" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="Y38" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35311</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>23307</v>
+      </c>
+      <c r="C39" t="s">
+        <v>368</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="J39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="K39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="L39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="O39" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4180,56 +4473,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="X39" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="Y39" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35311</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136187</v>
+      </c>
+      <c r="C40" t="s">
+        <v>377</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="O40" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4247,56 +4544,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="X40" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="Y40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35311</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>136188</v>
+      </c>
+      <c r="C41" t="s">
+        <v>387</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="J41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="K41" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="L41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4314,56 +4615,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="X41" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="Y41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35311</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>59349</v>
+      </c>
+      <c r="C42" t="s">
+        <v>394</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="J42" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="L42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="O42" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4381,56 +4686,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="X42" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="Y42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35311</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136189</v>
+      </c>
+      <c r="C43" t="s">
+        <v>400</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="J43" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="K43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="L43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="O43" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4448,56 +4757,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="X43" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="Y43" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35311</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136190</v>
+      </c>
+      <c r="C44" t="s">
+        <v>406</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
+        <v>407</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" t="s">
+        <v>408</v>
+      </c>
+      <c r="J44" t="s">
+        <v>409</v>
+      </c>
+      <c r="K44" t="s">
+        <v>410</v>
+      </c>
+      <c r="L44" t="s">
+        <v>411</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
         <v>364</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
-        <v>365</v>
-      </c>
-      <c r="J44" t="s">
-        <v>366</v>
-      </c>
-      <c r="K44" t="s">
-        <v>367</v>
-      </c>
-      <c r="L44" t="s">
-        <v>368</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>327</v>
-      </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4515,50 +4828,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35311</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136191</v>
+      </c>
+      <c r="C45" t="s">
+        <v>413</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="J45" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="K45" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="L45" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="M45" t="n">
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4570,56 +4887,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="X45" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="Y45" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35311</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>7214</v>
+      </c>
+      <c r="C46" t="s">
+        <v>420</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="J46" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="K46" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="L46" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="O46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -4635,56 +4956,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="X46" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="Y46" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35311</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>119689</v>
+      </c>
+      <c r="C47" t="s">
+        <v>430</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="J47" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="K47" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="L47" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="O47" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4700,56 +5025,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="X47" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="Y47" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35311</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136192</v>
+      </c>
+      <c r="C48" t="s">
+        <v>440</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="J48" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="K48" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="L48" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="O48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -4767,13 +5096,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="X48" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="Y48" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_227.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_227.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,99 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>doublecharged2018</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r593042210-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>106490</t>
+  </si>
+  <si>
+    <t>593042210</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>WORST EXPERIENCE EVER. Management do not care. It's been more than a month and STILL WAITING FOR REFUND</t>
+  </si>
+  <si>
+    <t>Spent 6 days at HOTEL with FAMILY. The condition of the rooms were very bad. Bed sheets, linens were dirty. Toilet was horrible. Rooms full of bugs, ants. Defective TV Remote. Ambience was very bad. very bad smell in the rooms and corridor. We also had an extremely unpleasant experience during check out, primarily due to the absolute incompetency of the hotel staff.I had to check out one day early. MANAGEMENT agreed the night before that they will process refund for one day HOWEVER didn't receive anything. Overall a horrible experience. Plenty of hotels available in near by areas. I would suggest to choose wisely and smartly.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway - Medical Center, responded to this reviewResponded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2018</t>
+  </si>
+  <si>
+    <t>Spent 6 days at HOTEL with FAMILY. The condition of the rooms were very bad. Bed sheets, linens were dirty. Toilet was horrible. Rooms full of bugs, ants. Defective TV Remote. Ambience was very bad. very bad smell in the rooms and corridor. We also had an extremely unpleasant experience during check out, primarily due to the absolute incompetency of the hotel staff.I had to check out one day early. MANAGEMENT agreed the night before that they will process refund for one day HOWEVER didn't receive anything. Overall a horrible experience. Plenty of hotels available in near by areas. I would suggest to choose wisely and smartly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r592244676-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>592244676</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>Let me start off by saying we only started one night. Corporate discount. We stayed here the night before moving into our new home in Plano by way of Virginia Beach. Room was clean and cool. I did notice there was absolutely nothing in the kitchen, so if you're going to stay much longer than we did, check in to that. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway - Medical Center, responded to this reviewResponded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2018</t>
+  </si>
+  <si>
+    <t>Let me start off by saying we only started one night. Corporate discount. We stayed here the night before moving into our new home in Plano by way of Virginia Beach. Room was clean and cool. I did notice there was absolutely nothing in the kitchen, so if you're going to stay much longer than we did, check in to that. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r590730411-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>590730411</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Pretty rundown and a lot went wrong</t>
+  </si>
+  <si>
+    <t>Stayed here for about two weeks before moving into our apartment. They seemed to have had both staffing and management issues for a while, correct processes just were not in place. Just going to list facts:- "Fully equipped" kitchen was empty upon arrival, when asking for kitchen utensils we we're given a couple of random cutlery and a pan. No cutting board, no knife, no bowls, no frying pan... We ended up buying our own equipment. (When booking "fully equipped kitchen" was stated on their site)- AC not working in exercise room except for one day.- House keeping after 11 days (should be weekly) in spite of us talking to both the reception and the cleaning personnel directly.- Pool closed for the season (in May, with temps exceeding 90 F)- Room very run down - see pics- The breakfast only has high carb, sugary candy/granola bars or pastries. We like to eat healthy so we made our own breakfast in our room. - staff messed up our reservation and for a while we were asked to pay about 100 dollars more than our already prepaid booking was for. This we were told through an answering machine message at 7 a.m. on a Sunday. Eventually this was sorted out, with the manager, but it was up to us to prove that we were right.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Plano Parkway - Medical Center, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for about two weeks before moving into our apartment. They seemed to have had both staffing and management issues for a while, correct processes just were not in place. Just going to list facts:- "Fully equipped" kitchen was empty upon arrival, when asking for kitchen utensils we we're given a couple of random cutlery and a pan. No cutting board, no knife, no bowls, no frying pan... We ended up buying our own equipment. (When booking "fully equipped kitchen" was stated on their site)- AC not working in exercise room except for one day.- House keeping after 11 days (should be weekly) in spite of us talking to both the reception and the cleaning personnel directly.- Pool closed for the season (in May, with temps exceeding 90 F)- Room very run down - see pics- The breakfast only has high carb, sugary candy/granola bars or pastries. We like to eat healthy so we made our own breakfast in our room. - staff messed up our reservation and for a while we were asked to pay about 100 dollars more than our already prepaid booking was for. This we were told through an answering machine message at 7 a.m. on a Sunday. Eventually this was sorted out, with the manager, but it was up to us to prove that we were right.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r569784876-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>106490</t>
-  </si>
-  <si>
     <t>569784876</t>
   </si>
   <si>
@@ -192,9 +270,6 @@
     <t>Arrived early in the morning, for a four night stay. They gave us a single handicapped accessible room instead of the reserved suite with pullout bed. Clerk 1 claimed the reservation specified the wrong room type. After showing her the reservation, she admitted it was a mistake, and found a second room so the kids would have somewhere to sleep. Second room had not been cleaned, trash was not taken out. Woke up in the morning after four hours of sleep, spoke to Team Lead. TL promised to move us to a room of the type we reserved in a few hours. Went to old room to get our things, room key no longer worked. Moved into room, confirmed to TL we had a four day prepaid reservation. Went to do our family visiting. Returned, room key no longer worked. Asked for pillows, there are no extra pillows. Asked desk to fix wifi access, they reset the room number. Day 2, get a call from the front desk. TL needed to confirm we had a four day reservation again. Emailed reservation confirmation to TL. Asked clerk 2 for pillows, there are no pillows. Have to have key reset. Have to get wifi fixed. Kids are sad and don't want to stay. Day 3, received call from TL, wants to know why we haven't already checked out. Explain again about the four day reservation. Get back from visiting family. Key doesn't...Arrived early in the morning, for a four night stay. They gave us a single handicapped accessible room instead of the reserved suite with pullout bed. Clerk 1 claimed the reservation specified the wrong room type. After showing her the reservation, she admitted it was a mistake, and found a second room so the kids would have somewhere to sleep. Second room had not been cleaned, trash was not taken out. Woke up in the morning after four hours of sleep, spoke to Team Lead. TL promised to move us to a room of the type we reserved in a few hours. Went to old room to get our things, room key no longer worked. Moved into room, confirmed to TL we had a four day prepaid reservation. Went to do our family visiting. Returned, room key no longer worked. Asked for pillows, there are no extra pillows. Asked desk to fix wifi access, they reset the room number. Day 2, get a call from the front desk. TL needed to confirm we had a four day reservation again. Emailed reservation confirmation to TL. Asked clerk 2 for pillows, there are no pillows. Have to have key reset. Have to get wifi fixed. Kids are sad and don't want to stay. Day 3, received call from TL, wants to know why we haven't already checked out. Explain again about the four day reservation. Get back from visiting family. Key doesn't work. Clerk 3 laughs about how silly it is that there are no pillows. After five minutes in the room, call from front desk. Bill due for 150 for two nights, on bill directly under the line item showing we paid for four nights. Clerk 3 is very sorry but nobody knows how to fix billing issue. Suggests I call corporate. Guest services is closed for the day. Mary from the international call center refuses to give ID number or reference number so that she can't be identified. She can't take my complaint but offers to pretend to. Flight out at 5 am tomorrow. Spend evening doing as the desk card suggested. "Tell the world about your stay".  So recap: incompetent staff, screwed up reservation, wrong room, dirty rooms, no pillows or dishes, complimentary breakfast has nothing left by 8 every morning, dryers out of order, hall lights flicker like an insane asylum, repeated keycard problems, double charged, and laughed at when suggesting paying twice for the same night is not normal. Will not stay again.More</t>
   </si>
   <si>
-    <t>Nick A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r567374679-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -219,9 +294,6 @@
     <t>The worst display of customer service I’ve ever seen! I booked a reservation via Priceline for a room for 3/18/2018 until 3/20/2018. I received an email on 3/5/2018 from “HotelPlanner” that my reservation was “Confirmed.” My girlfriend and I drove 15 hours from Arizona and arrived around midnight on 3/19/2018. We walk into the hotel to find no one at the front desk. I could hear someone watching or listening to something round around the wall by the front desk. Knowing someone had to have heard us walk in, I rang the bell they have on the counter. A lady named Sabrina comes from behind the wall. As if I was annoying her, she asks if she could help me. I told her I was checking in and provided her my last name. Sabrina proceeded to tell me I booked with Priceline and they sold me a room they didn’t have. Sabrina tells me, despite the parking lot being empty, they are booked. I tried to explain to her how I paid for this room for two nights, got a confirmation email, had my money taken out of my account, that’s it is midnight, and she says call Priceline as she proceeds to walk away from us and go back behind the wall. This was the worst customer service I have ever had. Sabrina had no human decency let alone customer service. More</t>
   </si>
   <si>
-    <t>mmcfadden17</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r563044042-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -252,9 +324,6 @@
     <t>I've been staying at the Extended Stay America in Plano Dallas Medical Center for over a week now.  I can't begin to explain the AMAZING customer service I have received in my short time staying here.  The team of Khan, Anna, Tre, Hamet, Sabrina, and Precilia have taken such good care of me!  I've managed hotels for many years and I know how important a great team is towards creating the best guest experience.  Whenever I'm in the Plano area I will only stay at this location!  Truly great service!!!  Thanks to allMore</t>
   </si>
   <si>
-    <t>Mojowater</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r554127102-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -282,9 +351,6 @@
     <t>The smell of the hotel was awful. I'm not sure what it was but the hallways and the room smelled terrible. I walked the property to verify it was not just my hallway or room and the whole hotel smelled disgusting. Also, I asked for kitchen items and was given a pot, a frying pan, a plate, spoon, fork, knife and plate. Also, a spatula, but I couldn't use it because it was so flimsy as to be ineffective. I had to go buy a cheap-as-I-could knife, cutting board, spatula, and cooking spoon just to have basic cooking items available. This is not acceptable when the hotel says it will stock these items. On the upside, I found the front desk staff amiable. The room was also clean despite the absolutely foul smell. Overall, I would never recommend this hotel, and have notified the owner of my company to never send anyone to this extended stay location again.More</t>
   </si>
   <si>
-    <t>liangn2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r547449084-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -315,9 +381,6 @@
     <t>Good for the price. Large room with separate kitchen, living area and sleeping area. I traveled alone, but the room is enough for a family of 4. Would return again. Price was good. Little far from 75.More</t>
   </si>
   <si>
-    <t>heylie393</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r545793196-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -342,9 +405,6 @@
     <t>Hamet at the front desk was super sweet and very helpful. Everyone was friendly and made it feel kinda homey. Very clean and well kept throughout the building. The room was awesome!! Just a laid back environment! Loved staying hereMore</t>
   </si>
   <si>
-    <t>johntwestbrook7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r538279657-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -372,9 +432,6 @@
     <t>If you ask for something that is offered by Extended stay America you receive the bare minimum if you are lucky. Welcome is not exactly the feeling you get when you are there. Unfortunate because it could really be a great place to stay. More</t>
   </si>
   <si>
-    <t>Mssmith43</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r536649069-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -399,9 +456,6 @@
     <t>Terea, was the best representation of Customer Service .  She was very accommodating, very friendly, Offered a smile, and a great attitude !!  The room wasn’t what I thought it would be.  But it a clean!! If you stay more than 7 days you will get a room cleaning, but only by request. But overall. A decent stay for the price I paid!!More</t>
   </si>
   <si>
-    <t>Yucoya G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r535905117-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -426,9 +480,6 @@
     <t>I have stayed here several times. Rooms are clean. Front desk clerk Terea is always so helpful. Always offers her assistance with anything i may need. Will definitely book here again. The price is great and the rooms are cleanMore</t>
   </si>
   <si>
-    <t>Vaughn P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r531134231-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -453,9 +504,6 @@
     <t>Having a great stay, Both Terea and Hemet are awesome and have been most helpful!I would definitely recommend this hotel to anyone looking for a comfortable stay!  Being a trucker and being over the road long periods its nice to be able to check in somewhere that I know my rig won't be messed with or my slumber disturbed!More</t>
   </si>
   <si>
-    <t>Renissa P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r531061590-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -477,9 +525,6 @@
     <t>We have really been very pleased with our stay here...everything is clean and enjoyable and the staff is outstanding! The room is perfect with it's full kitchen ..including a full oven...feels like your own appartment...Terea Wilson has been greatly accommodating! From the first time I called she has been extremely polite,respectful and always makes sure you are very well taken care of....thank you Terea!!!I would definitely recommend this location over all the rest in this area....More</t>
   </si>
   <si>
-    <t>Real M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r530375323-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -507,9 +552,6 @@
     <t>hotel is good. they can work on cleanliness..at front desk terea wilson was helpful.rooms are good and airy. its a good budget hotel with all basic amenities. parking space is available which is added advantageMore</t>
   </si>
   <si>
-    <t>Priscilla T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r530372093-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -522,15 +564,9 @@
     <t>Very attentive, astonishing personality, helped me with any questions I had to my satisfactory, and was overall just very welcoming. The place is very clean, manager is onsite everyday, maintenance is up to par and they are pet friendly which was a plus for me.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Very attentive, astonishing personality, helped me with any questions I had to my satisfactory, and was overall just very welcoming. The place is very clean, manager is onsite everyday, maintenance is up to par and they are pet friendly which was a plus for me.More</t>
   </si>
   <si>
-    <t>Terea W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r530369409-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -543,9 +579,6 @@
     <t>Hello I am in 106 I love the people they speak every time Terea was so sweet to come we love this place we will be back this feel like home to us anything we need and ask for they make sure we get it they always make sure the room is clean I just love it More</t>
   </si>
   <si>
-    <t>camessia69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r530369277-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -558,9 +591,6 @@
     <t>While we have been staying here. The service has been amazing. The front desk clerk "Teresa Wilson" has gone above and beyond being helpful to me and my family. We need more people like her working for your company.                                 Camessia Leaks                                       #108 More</t>
   </si>
   <si>
-    <t>Derek C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r522384504-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -585,9 +615,6 @@
     <t>Following is summary list of what went wrong:• Entire hotel smelled of sour, rotten garbage smell.*• Both "smoke free" guestrooms smelled of smoke and trash.• The toilet seat did not look clean at all.• In one of the room assigned, entry light is broken, one of the lamp shade is down with no bulb, room doesn't seem ready for guest.• Pillow cases were stained• Both kitchen were completely empty. Some of the cabinets were open, and the microwave was opened in one of the room. It looked as if someone ransacked it.  No coffee maker, ice bucket, etc.• Hotel Wifi was questionable. The available connections did not look like an official connection. Most are private hotspots. I would not trust connecting to them.• There were no extra linen for the pull out bed.• In the morning during check out time, there were no on at the counter. One guest was waiting for at least 20 minutes, eventually left without help.We booked 4 nights for an emergency family medical issue. End up spending only one night. Hotel management refused to refund.Not looking for a 4 star full service hotel. However for sanitary reason alone, I would not recommend anyone coming here. Staffs seems friendly and genuinely tries to help. Management issue apparent.More</t>
   </si>
   <si>
-    <t>536jaidew</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r509070792-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -615,9 +642,6 @@
     <t>This had to be the best service I've experienced with any hotel including 4/5 star locations. My boyfriend and I just needed somewhere to stay for a few days and we got lucky with this one. Hamet, Khan and Tre went above and beyond to satisfy our needs! The room we were placed in was very spacious and we enjoyed being able to cook. Anything we needed was provided. Will book again when in the area! More</t>
   </si>
   <si>
-    <t>RGonzales2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r505306164-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -645,9 +669,6 @@
     <t>I stayed here for about 2 months. The Hotel was clean, staff was very friendly, affordable rates and I felt like I was at home. The General Manager Hamet Sy is super nice and knows how to treat his guests. I would definitely recommend this hotel and would definitely stay here again. Thank you extended stay for making my trip a pleasurable one!More</t>
   </si>
   <si>
-    <t>Brooklyn B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r500888092-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -675,9 +696,6 @@
     <t>I was in town to visit a relative in the Hospital nearby and the management was very nice &amp; helpful and accommodated my needs. I highly recommend this hotel if you are in the area. The room I had originally booked was not ready when I arrived so he was so nice as to give me the biggest &amp; most comfortable room they had...More</t>
   </si>
   <si>
-    <t>markanthonyc764</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r497001280-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -705,9 +723,6 @@
     <t>Room was not ready at check in. Not stocked and smell of curry permeated everything. Air conditioner very noisy. Grab and go breakfast just granola bars and coffee. Great location and outside attractiveMore</t>
   </si>
   <si>
-    <t>Tomas A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r488156732-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -732,9 +747,6 @@
     <t>It will be one year the first of June (2017) since I have checked in.  Since arriving I have always felt comfortable here, however, there has been a huge turn over in staffing.  For someone who is a resident and not a guest this can be annoying at times because every time a new person starts they don't know your history and as a resident I take little things for-granted like having the front desk or housekeepers knowing me by name or if I need something from the front desk and they don't know me I have to show ID to pick up a package.  I'll just chalk it up to the "nomad minimalist" lifestyle.  I must admit a new General Manager was brought in about 2-3 months ago and I have seen some well needed improvements to the property.  The landscaping has been kept up (except for the dog poo everywhere, yuck).  I have dogs myself and always pick up after my dogs, I blame irresponsible pet owners, however, it is nasty to see it outside all the time.  They also recently replaced the outside lights, love it very bright and secure feeling (although I have never heard of any issues with outside safety).  The rooms are very comfortable and have full kitchens.  My room had a new counter put in not long ago which was very nice!  I take care of my suite and never have any maintenance...It will be one year the first of June (2017) since I have checked in.  Since arriving I have always felt comfortable here, however, there has been a huge turn over in staffing.  For someone who is a resident and not a guest this can be annoying at times because every time a new person starts they don't know your history and as a resident I take little things for-granted like having the front desk or housekeepers knowing me by name or if I need something from the front desk and they don't know me I have to show ID to pick up a package.  I'll just chalk it up to the "nomad minimalist" lifestyle.  I must admit a new General Manager was brought in about 2-3 months ago and I have seen some well needed improvements to the property.  The landscaping has been kept up (except for the dog poo everywhere, yuck).  I have dogs myself and always pick up after my dogs, I blame irresponsible pet owners, however, it is nasty to see it outside all the time.  They also recently replaced the outside lights, love it very bright and secure feeling (although I have never heard of any issues with outside safety).  The rooms are very comfortable and have full kitchens.  My room had a new counter put in not long ago which was very nice!  I take care of my suite and never have any maintenance issues.  The suites are easy to "make your own" if you stay for an extended period of time.  For the most part I feel safe here, occasionally there are some questionable guests but they don't seem to be here very long (this seems to be getting better as well).  On the reverse side there are some great residents who have lived here for years and it is like having real neighbors!  Exercise room was recently upgraded with new equipment and the outside pool area is great to enjoy in the evenings.  I am hoping that the washers/dryers are maybe upgraded someday they are hit and miss on whether they work as designed (be nice if they took paper money as well).  In closing I must comment on the team that works here.  Hamet really does seem to care about the property and residents/guests.  Also a shout out to Tre, Tony, and Carrie for always being kind and caring day after day.More</t>
   </si>
   <si>
-    <t>missladyj21</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r485327080-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -759,9 +771,6 @@
     <t>I was a little skeptical about this hotel at first but now its the only hotel in the area I would stay in. I've gotten a chance to get to know the staff and they are great. They make sure we have everything we need for our stay. Manager is really nice as well.More</t>
   </si>
   <si>
-    <t>petercawthon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r485056287-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -780,9 +789,6 @@
     <t>The room was clean and had the basics we needed to  cook with. The location was very close to our doctor and was very quiet. The staff was very attentive to our needs. Thanks to: Hamet Sy, Tre, Khan, Tony, Kisha and the rest of the staff. They were always very friendly and helpful. More</t>
   </si>
   <si>
-    <t>aadunlapesq</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r472902330-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -801,9 +807,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t>1driver8</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r466806633-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -819,9 +822,6 @@
     <t>Stayed here because I had a family member staying in a nearby hospital. Location was very convenient - you can get from the hotel to the hospital by driving through the parking lot, without even venturing onto the roads. Housekeeping service was non-existent, I had to ask the front desk more than three times to even get basic service like clean towels. "Breakfast" was weak coffee and pre-packaged muffins. There are other budget hotels just as close that may have better service.</t>
   </si>
   <si>
-    <t>TheMrsRockstar</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r463493867-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -849,9 +849,6 @@
     <t>The room was acceptably clean, but there was a missing drawer in the kitchen and no water pressure in the shower. Definitely feels a little old and worn down. The service was excellent though and all the employees were friendly and helpful!More</t>
   </si>
   <si>
-    <t>maria i</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r455280717-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -879,9 +876,6 @@
     <t>Love this place! Everyone was so friendly! Great customer service. I was in need for some relaxation after some time in the hospital, from the beginning people treated me with kindness and respect.  Front desk guy was hilarious and very patient with me.More</t>
   </si>
   <si>
-    <t>Ashley S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r455277508-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -900,9 +894,6 @@
     <t>The staff was very nice. My room was clean. The manager was so nice. if i had any questions they helped me. i highly suggest staying here. if you want an affordable place to stay with the best staff stay hereMore</t>
   </si>
   <si>
-    <t>jennifer p</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r455275342-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -918,9 +909,6 @@
     <t>Been to many hotels her in Dallas, but I have to admit that ESA in Plano in an amazing hotel. Great Value to start with, when checking in the customer service is perfectly greeted and explained. They gave me information in detailed about my stay and what my room and expectations consisted of (no surprises). Great parking availability. Very well organized staff and cleaning compartments. My room was well kept clean while my week of stay. Staff was very generous and friendly. Clean towels and sheets every day. Manager spoke to me in a nice greet when checking out and in of the hotel. Nicest hotel I must admit lobby and halls well decorated and cleaned. Thanks for making my visit very friendly. Will recommend this hotel and will be returning soon.More</t>
   </si>
   <si>
-    <t>thermanhouston</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r455198516-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -936,9 +924,6 @@
     <t>Kesha was more than helpful during my stay at your location.  She's very knowledgeable and extremely helpful, she appeared to know her way around the establishment and made me feel very warm and comfortable during my stay with your hotel.  She was so warm that I assure when I return to Plano, TX I will ensure to stay in your hotel again!!!! Her overall knowledge is rated at a 10!More</t>
   </si>
   <si>
-    <t>lauraduran54</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r455193991-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -954,9 +939,6 @@
     <t>I had a Amazing Experience at this hotel! From the time I walked in staff was very Friendly! Especially the manager Antonio amazing hospitality we got from him from the beginning of the stay till the day we checked out! I definitely will come back to this hotel when I visit the dfw again! Rooms were very clean and when we needed something they would bring it to us with no problem at all!!! Love this hotel and had a amazing experience!!!!More</t>
   </si>
   <si>
-    <t>tmdiggs</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r448152005-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -981,9 +963,6 @@
     <t>The lobby and halls reeked of marijuana.  The room was not clean and the refrigerator did not work.  My daughter and her children were then moved to another room because this was "not up to par" according to the front desk clerk.  The second room did not have a working latch.  The front desk said that lock was not needed and it was safe to stay there.  I do not think so.  She ended up looking for another hotel and leaving just after arrival.More</t>
   </si>
   <si>
-    <t>aloiii</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r435010785-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1011,9 +990,6 @@
     <t>This is without a doubt the worst hotel that I've ever stayed at in America. The staff pictures make the place look like a gem, it's far far from that, dirty, stinky, sticky hotel. Room stock was horrible, no housecleaning service (think you pay extra for that) no coffee in room, give you a pot(if you ask for one) but no coffee packs to make coffee. no kitchen utensils at all, none, unless you ask and then you get nothing to wash any dish you may use so what good is that? just a horrible experience.More</t>
   </si>
   <si>
-    <t>staffinspection701</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r434941308-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1035,9 +1011,6 @@
     <t>Staff was rude and this place is the most filthy hotel that exist. It looks horrible on the outside and the inside is WORSE. Hallways Stink like old trash starting with the elevator. There's holes on the walls, holes in the ceilings, no landscaping, flea infested, bed bugs!! Omg!!!!!! There's mold in the shower, broken doors, garbage in and out of the hotel! Still water on pool cover with mosquito eggs and mold growing! Dirty carpet in halls and rooms. Trash piles up so high on the trash cans everywhere and it stinks I saw maggots in the garbage can. I saw a possum in the parking lot by the trash bin. They have broken doors that won't open to get into the building they had a branch to keep it open. I saw a homeless man sneak in to sleep in the stairway. I saw prostitutes coming in &amp; out all night and a Cop stopped a guy turning into the hotel and he got busted for selling drugs in the hotel. Why oh why do they allow this? Unfortunately because I had already booked my stay for the night I stayed but believe me it was HELL! I will NEVER STAY here again. I asked to speak to the manager the front desk said he quit 4 days ago! I don't blame him. Help this Place somebody because it's the worst I've ever seen if you ask me...Staff was rude and this place is the most filthy hotel that exist. It looks horrible on the outside and the inside is WORSE. Hallways Stink like old trash starting with the elevator. There's holes on the walls, holes in the ceilings, no landscaping, flea infested, bed bugs!! Omg!!!!!! There's mold in the shower, broken doors, garbage in and out of the hotel! Still water on pool cover with mosquito eggs and mold growing! Dirty carpet in halls and rooms. Trash piles up so high on the trash cans everywhere and it stinks I saw maggots in the garbage can. I saw a possum in the parking lot by the trash bin. They have broken doors that won't open to get into the building they had a branch to keep it open. I saw a homeless man sneak in to sleep in the stairway. I saw prostitutes coming in &amp; out all night and a Cop stopped a guy turning into the hotel and he got busted for selling drugs in the hotel. Why oh why do they allow this? Unfortunately because I had already booked my stay for the night I stayed but believe me it was HELL! I will NEVER STAY here again. I asked to speak to the manager the front desk said he quit 4 days ago! I don't blame him. Help this Place somebody because it's the worst I've ever seen if you ask me they should just close it down. You don't believe me look at the pictures I uploaded warning stay away. False advertising by the way no meeting room exist here! The pictures online are from like 20 years ago. Location Extended Stay Plano Tx. 4636 W. Plano Pkwy.Plano, Tx. 75093No Manager?! Really? Antonio Diaz check me in so rude. A a guy named D'Shawn was worse. He wouldn't give me a refund so I could stay somewhere else.More</t>
   </si>
   <si>
-    <t>Ashley T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r399514131-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1065,9 +1038,6 @@
     <t>Came down to visit Dallas over the weekend.  Enjoyed the Dallas zoo  with my husband and kids. Nice clean hotel great staff. THANKS TIA, KENDRICK!!!!! Well return in 2 weeks to visit six flags with my familyMore</t>
   </si>
   <si>
-    <t>SashaTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r394453782-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1092,9 +1062,6 @@
     <t>Check in at 3 but room wasn't ready until 5:30. Was told hotel had been renovated. Maybe newish carpet but all of the appliances were ancient. Kitchen did not even have a cup. You have to go ask for every single thing. Super noisy above so ask for top floor. Sounded like parties or gymnastics class going on every night. People sitting around smoking all the time by front and back door. They put us in a handicap room so the shower was leaking all over every time we used it. Just seems dumpy and trashy. I supposedly had 30% off and still ended up paying $90/nt...no discount for longer stay. The front desk staff and housekeeping are very friendly and will give you whatever you ask for but you have to ask for everything.More</t>
   </si>
   <si>
-    <t>Agent_Gillispie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r386400095-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1122,9 +1089,6 @@
     <t>Overall, this was an awesome experience in a good location especially for shopping and eating. Staff was exceptional and made my family's stay very enjoyable. Rooms and the pool area were always very clean and free of mess. I would definitely recommend this hotel. I was greatly relieved that they allowed my pet to travel with me minus the high prices that other chains charge. Just in that one fact, I knew that I had found a wonderful place to stay. It was a great experience, I will definitely be back.More</t>
   </si>
   <si>
-    <t>E B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r381762428-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1149,9 +1113,6 @@
     <t>If you are in town for business purposes avoid Extended Stay America hotels. Their WiFi says frree WiFi, but it is less than 1 Mbps. This makes loading most websites very difficult. they offer an upgrade for a fee, but even the upgrade is less than 5 Mbps. Which makes streaming videos or making skype calls very hard. Besides the WiFi, the accomodations is average at best. The hallways has this distinct oder, I can't explain it. It's not a good oder. It might be caused by the trash found at the end of the hallway. Guests leave their trash from their rooms at the trashcan daily, and the hotel does not remove it until the end of the night. So by noon you will see an overflowing garbage bin that is not only unsightly but also may be the cause of the oder in the hallway. The rooms are average. Stains on the couch. I am glad I brought my own towels. The provided towels looked worn out. Bed sheets were also not in the best conditions. Summary: Avoid if you can, especially if you need WiFi access.More</t>
   </si>
   <si>
-    <t>Areli H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r381238321-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1179,9 +1140,6 @@
     <t>The location was very clean and my entire stay was comfortable. The customer service was through the roof and the assistant manager (Antonio) was very attentive. I would definitely recommend this location!More</t>
   </si>
   <si>
-    <t>malvarez9325</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r381008314-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1200,9 +1158,6 @@
     <t>Everything was easy going. The morning guy (hispanic) was able to check me in right away. He was very helpful with plenty of information for me. I only stayed for the weekend because of work but my room was clean and the staff was very friendly upon my departure .More</t>
   </si>
   <si>
-    <t>Jay E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r381004648-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1218,9 +1173,6 @@
     <t>Stayed at medical city for 2 nights and had the pleasure of meeting Kendrick,Antonio very nice and friendly welcomed me like family. I will be returning in July to go back to Baylor and I would love 314 again until then ThanksMore</t>
   </si>
   <si>
-    <t>Jesus P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r380990794-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1236,9 +1188,6 @@
     <t>The room was very well maintained, and fitted every need I could think of. Fresh towels and a made bed every time on time. An assistant manager on standby for any situation that arises, and is considerate. Handling with professional customers assistance 24/7. The location is ideal for business and personal leisure.More</t>
   </si>
   <si>
-    <t>Xavier J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r379962051-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1257,9 +1206,6 @@
     <t>Everything about the stay here was great, the staff was very friendly and helpful at check-in, the room was clean, well stocked with towels, and toiletries as to be expected, very quiet, even when the hotel is full to capacity, you will rarely hear anyone... It is well located, literally next door to the Heart hospital, shopping, dining, etc all within a few miles... I had a situation with my reservation, I had booked at a different extended stay location, but the day of check in my car broke down and I had no way to get to the location I had booked at, the staff was very helpful and worked everything out for me, I couldnt ask for ANY better extended stay experience! Kendrick the manager is amazing, and Antonio too!More</t>
   </si>
   <si>
-    <t>Cortney N</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r378098606-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1278,9 +1224,6 @@
     <t>My neighbors where very loud when I asked the front desk to move I was told that I had to wait till the next morning to talk to the manager then the next morning I was told I could have a smaller room or a smoking room and that was not an option as I had a two year old and a eight year old with me note if you are gonna stay here stay away from the room next to the stairs if you have small children.More</t>
   </si>
   <si>
-    <t>Steve T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r366146808-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1308,9 +1251,6 @@
     <t>Well built facility, rooms are quiet and it's hard to hear other guests. I requsted a top floor and due to the capacity I ended up on the middle floor.  Room was spacious and the bed/pillows were adequate.  Kitchen actually had an oven however it was filthy with grease dripping out of the bottom.  Staff were friendly and seemed genuine. Very pleasant stay. I paid for the upgraded WiFi due to the massive amounts of uploads I do for work, I did not notice any difference in speed from other Extended Stay's WiFi that is free, might have got taken on the upgrade.More</t>
   </si>
   <si>
-    <t>13bedbugz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r338025100-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
   </si>
   <si>
@@ -1336,9 +1276,6 @@
   </si>
   <si>
     <t>Well folks after reading the reviews on here I was kinda dreading coming here after priceline booked me here...... But as with any other business a change in staff can make a huge difference.  Kendrick You Rock!  And your Assistant is just as awesome.Make cars battery was dead and his assistant went and jumped off my car.....he sat in the cold while it charged and his upbeat happy personality brought a smile. Check in was quick and a breeze, Room was clean and comfortable.... like a tiny apartment...full kitchen.  Now folks I read the reviews and I must explain one thing,  an extended stay is different from a motel/hotel......when going to extended stays you should feel like your moving to an apartment for a short period of time. Yes it is a no frills,  but I bring things that make me feel at home....my own towels and sheets, lighting, a couple of my own art pieces.  Enough said I would stay here anytime.More</t>
-  </si>
-  <si>
-    <t>blazejbla</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106490-r330325852-Extended_Stay_America_Dallas_Plano_Parkway_Medical_Center-Plano_Texas.html</t>
@@ -1864,112 +1801,110 @@
       <c r="A2" t="n">
         <v>35311</v>
       </c>
-      <c r="B2" t="n">
-        <v>136156</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35311</v>
       </c>
-      <c r="B3" t="n">
-        <v>40190</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1981,292 +1916,250 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35311</v>
       </c>
-      <c r="B4" t="n">
-        <v>136157</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35311</v>
       </c>
-      <c r="B5" t="n">
-        <v>136158</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35311</v>
       </c>
-      <c r="B6" t="n">
-        <v>136159</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L6" t="s">
-        <v>93</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35311</v>
       </c>
-      <c r="B7" t="n">
-        <v>136160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>5</v>
@@ -2275,330 +2168,340 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35311</v>
       </c>
-      <c r="B8" t="n">
-        <v>136161</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
         <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>114</v>
-      </c>
-      <c r="O8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35311</v>
       </c>
-      <c r="B9" t="n">
-        <v>136162</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
         <v>47</v>
       </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
         <v>3</v>
       </c>
-      <c r="N9" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35311</v>
       </c>
-      <c r="B10" t="n">
-        <v>136163</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35311</v>
       </c>
-      <c r="B11" t="n">
-        <v>136164</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35311</v>
       </c>
-      <c r="B12" t="n">
-        <v>136165</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2610,131 +2513,117 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35311</v>
       </c>
-      <c r="B13" t="n">
-        <v>136166</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35311</v>
       </c>
-      <c r="B14" t="n">
-        <v>136167</v>
-      </c>
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
         <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2746,60 +2635,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s">
         <v>160</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>161</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35311</v>
       </c>
-      <c r="B15" t="n">
-        <v>136168</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
         <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="O15" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2811,269 +2696,245 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35311</v>
       </c>
-      <c r="B16" t="n">
-        <v>136169</v>
-      </c>
-      <c r="C16" t="s">
-        <v>175</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="X16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35311</v>
       </c>
-      <c r="B17" t="n">
-        <v>35722</v>
-      </c>
-      <c r="C17" t="s">
-        <v>180</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
         <v>181</v>
       </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" t="s">
-        <v>182</v>
-      </c>
-      <c r="J17" t="s">
-        <v>183</v>
-      </c>
-      <c r="K17" t="s">
-        <v>184</v>
-      </c>
-      <c r="L17" t="s">
-        <v>185</v>
-      </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35311</v>
       </c>
-      <c r="B18" t="n">
-        <v>136170</v>
-      </c>
-      <c r="C18" t="s">
-        <v>189</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="O18" t="s">
-        <v>168</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="X18" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35311</v>
       </c>
-      <c r="B19" t="n">
-        <v>136171</v>
-      </c>
-      <c r="C19" t="s">
-        <v>199</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3085,754 +2946,708 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="X19" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35311</v>
       </c>
-      <c r="B20" t="n">
-        <v>136172</v>
-      </c>
-      <c r="C20" t="s">
-        <v>209</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="X20" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="Y20" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35311</v>
       </c>
-      <c r="B21" t="n">
-        <v>136173</v>
-      </c>
-      <c r="C21" t="s">
-        <v>219</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
         <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="X21" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35311</v>
       </c>
-      <c r="B22" t="n">
-        <v>136174</v>
-      </c>
-      <c r="C22" t="s">
-        <v>229</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="X22" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35311</v>
       </c>
-      <c r="B23" t="n">
-        <v>136175</v>
-      </c>
-      <c r="C23" t="s">
-        <v>238</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
         <v>47</v>
       </c>
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
       <c r="I23" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="K23" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="O23" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="X23" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="Y23" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35311</v>
       </c>
-      <c r="B24" t="n">
-        <v>136176</v>
-      </c>
-      <c r="C24" t="s">
-        <v>247</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>231</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="n">
         <v>3</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="X24" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="Y24" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35311</v>
       </c>
-      <c r="B25" t="n">
-        <v>136177</v>
-      </c>
-      <c r="C25" t="s">
-        <v>254</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
         <v>47</v>
       </c>
-      <c r="H25" t="s">
-        <v>48</v>
-      </c>
       <c r="I25" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="J25" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>240</v>
+      </c>
+      <c r="X25" t="s">
+        <v>241</v>
+      </c>
       <c r="Y25" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35311</v>
       </c>
-      <c r="B26" t="n">
-        <v>136178</v>
-      </c>
-      <c r="C26" t="s">
-        <v>261</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
       <c r="I26" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="J26" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>248</v>
+      </c>
+      <c r="X26" t="s">
+        <v>249</v>
+      </c>
       <c r="Y26" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35311</v>
       </c>
-      <c r="B27" t="n">
-        <v>136179</v>
-      </c>
-      <c r="C27" t="s">
-        <v>267</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
         <v>47</v>
       </c>
-      <c r="H27" t="s">
-        <v>48</v>
-      </c>
       <c r="I27" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
-      <c r="N27" t="s">
-        <v>273</v>
-      </c>
-      <c r="O27" t="s">
-        <v>74</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="X27" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="Y27" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35311</v>
       </c>
-      <c r="B28" t="n">
-        <v>136180</v>
-      </c>
-      <c r="C28" t="s">
-        <v>277</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-      <c r="H28" t="s">
-        <v>48</v>
-      </c>
       <c r="I28" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="J28" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="O28" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>284</v>
-      </c>
-      <c r="X28" t="s">
-        <v>285</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35311</v>
       </c>
-      <c r="B29" t="n">
-        <v>24000</v>
-      </c>
-      <c r="C29" t="s">
-        <v>287</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
         <v>47</v>
       </c>
-      <c r="H29" t="s">
-        <v>48</v>
-      </c>
       <c r="I29" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="J29" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>95</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>284</v>
-      </c>
-      <c r="X29" t="s">
-        <v>285</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35311</v>
       </c>
-      <c r="B30" t="n">
-        <v>77015</v>
-      </c>
-      <c r="C30" t="s">
-        <v>294</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
         <v>47</v>
       </c>
-      <c r="H30" t="s">
-        <v>48</v>
-      </c>
       <c r="I30" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K30" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s">
-        <v>74</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3842,64 +3657,62 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="X30" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Y30" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35311</v>
       </c>
-      <c r="B31" t="n">
-        <v>136181</v>
-      </c>
-      <c r="C31" t="s">
-        <v>300</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
         <v>47</v>
       </c>
-      <c r="H31" t="s">
-        <v>48</v>
-      </c>
       <c r="I31" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
         <v>280</v>
       </c>
-      <c r="K31" t="s">
-        <v>303</v>
-      </c>
       <c r="L31" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="O31" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="n">
         <v>5</v>
       </c>
@@ -3911,69 +3724,65 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
+        <v>283</v>
+      </c>
+      <c r="X31" t="s">
         <v>284</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>285</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35311</v>
       </c>
-      <c r="B32" t="n">
-        <v>136182</v>
-      </c>
-      <c r="C32" t="s">
-        <v>306</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
         <v>47</v>
       </c>
-      <c r="H32" t="s">
-        <v>48</v>
-      </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="L32" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O32" t="s">
-        <v>168</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="n">
         <v>5</v>
       </c>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3982,629 +3791,589 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>283</v>
+      </c>
+      <c r="X32" t="s">
         <v>284</v>
       </c>
-      <c r="X32" t="s">
-        <v>285</v>
-      </c>
       <c r="Y32" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35311</v>
       </c>
-      <c r="B33" t="n">
-        <v>136183</v>
-      </c>
-      <c r="C33" t="s">
-        <v>312</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
         <v>47</v>
       </c>
-      <c r="H33" t="s">
-        <v>48</v>
-      </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="L33" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="X33" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35311</v>
       </c>
-      <c r="B34" t="n">
-        <v>136184</v>
-      </c>
-      <c r="C34" t="s">
-        <v>321</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
         <v>47</v>
       </c>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
       <c r="I34" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="J34" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="X34" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="Y34" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35311</v>
       </c>
-      <c r="B35" t="n">
-        <v>136185</v>
-      </c>
-      <c r="C35" t="s">
-        <v>331</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
         <v>47</v>
       </c>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
       <c r="I35" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="K35" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>337</v>
+        <v>290</v>
       </c>
       <c r="O35" t="s">
-        <v>74</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="X35" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="Y35" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35311</v>
       </c>
-      <c r="B36" t="n">
-        <v>4737</v>
-      </c>
-      <c r="C36" t="s">
-        <v>339</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
         <v>47</v>
       </c>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
       <c r="I36" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="J36" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="K36" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
       <c r="L36" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="X36" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="Y36" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35311</v>
       </c>
-      <c r="B37" t="n">
-        <v>136186</v>
-      </c>
-      <c r="C37" t="s">
-        <v>349</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
         <v>47</v>
       </c>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
       <c r="I37" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="J37" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="K37" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="O37" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="n">
         <v>3</v>
       </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
       <c r="X37" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
       <c r="Y37" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35311</v>
       </c>
-      <c r="B38" t="n">
-        <v>136006</v>
-      </c>
-      <c r="C38" t="s">
-        <v>358</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
         <v>47</v>
       </c>
-      <c r="H38" t="s">
-        <v>48</v>
-      </c>
       <c r="I38" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="J38" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="L38" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="O38" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="X38" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="Y38" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35311</v>
       </c>
-      <c r="B39" t="n">
-        <v>23307</v>
-      </c>
-      <c r="C39" t="s">
-        <v>368</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
         <v>47</v>
       </c>
-      <c r="H39" t="s">
-        <v>48</v>
-      </c>
       <c r="I39" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="K39" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="X39" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="Y39" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35311</v>
       </c>
-      <c r="B40" t="n">
-        <v>136187</v>
-      </c>
-      <c r="C40" t="s">
-        <v>377</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
         <v>47</v>
       </c>
-      <c r="H40" t="s">
-        <v>48</v>
-      </c>
       <c r="I40" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="J40" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="K40" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="O40" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="X40" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="Y40" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35311</v>
       </c>
-      <c r="B41" t="n">
-        <v>136188</v>
-      </c>
-      <c r="C41" t="s">
-        <v>387</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
         <v>47</v>
       </c>
-      <c r="H41" t="s">
-        <v>48</v>
-      </c>
       <c r="I41" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="J41" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="O41" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
@@ -4615,208 +4384,198 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="X41" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="Y41" t="s">
-        <v>393</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35311</v>
       </c>
-      <c r="B42" t="n">
-        <v>59349</v>
-      </c>
-      <c r="C42" t="s">
-        <v>394</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
         <v>47</v>
       </c>
-      <c r="H42" t="s">
-        <v>48</v>
-      </c>
       <c r="I42" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="J42" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="K42" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="L42" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="O42" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="X42" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="Y42" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35311</v>
       </c>
-      <c r="B43" t="n">
-        <v>136189</v>
-      </c>
-      <c r="C43" t="s">
-        <v>400</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
         <v>47</v>
       </c>
-      <c r="H43" t="s">
-        <v>48</v>
-      </c>
       <c r="I43" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="K43" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="L43" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="O43" t="s">
-        <v>95</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="X43" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="Y43" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35311</v>
       </c>
-      <c r="B44" t="n">
-        <v>136190</v>
-      </c>
-      <c r="C44" t="s">
-        <v>406</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
         <v>47</v>
       </c>
-      <c r="H44" t="s">
-        <v>48</v>
-      </c>
       <c r="I44" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="O44" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4825,198 +4584,198 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>371</v>
+      </c>
+      <c r="X44" t="s">
+        <v>372</v>
+      </c>
       <c r="Y44" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35311</v>
       </c>
-      <c r="B45" t="n">
-        <v>136191</v>
-      </c>
-      <c r="C45" t="s">
-        <v>413</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
       <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
         <v>47</v>
       </c>
-      <c r="H45" t="s">
-        <v>48</v>
-      </c>
       <c r="I45" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="J45" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="K45" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="L45" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="O45" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
+        <v>371</v>
+      </c>
+      <c r="X45" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y45" t="s">
         <v>384</v>
-      </c>
-      <c r="X45" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35311</v>
       </c>
-      <c r="B46" t="n">
-        <v>7214</v>
-      </c>
-      <c r="C46" t="s">
-        <v>420</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
         <v>47</v>
       </c>
-      <c r="H46" t="s">
-        <v>48</v>
-      </c>
       <c r="I46" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="J46" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="K46" t="s">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>426</v>
+        <v>370</v>
       </c>
       <c r="O46" t="s">
-        <v>74</v>
-      </c>
-      <c r="P46" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
       <c r="X46" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="Y46" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35311</v>
       </c>
-      <c r="B47" t="n">
-        <v>119689</v>
-      </c>
-      <c r="C47" t="s">
-        <v>430</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
         <v>47</v>
       </c>
-      <c r="H47" t="s">
-        <v>48</v>
-      </c>
       <c r="I47" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="J47" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="K47" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="L47" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>436</v>
+        <v>353</v>
       </c>
       <c r="O47" t="s">
-        <v>168</v>
-      </c>
-      <c r="P47" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>3</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>5</v>
@@ -5024,85 +4783,268 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>437</v>
-      </c>
-      <c r="X47" t="s">
-        <v>438</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35311</v>
       </c>
-      <c r="B48" t="n">
-        <v>136192</v>
-      </c>
-      <c r="C48" t="s">
-        <v>440</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
       <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
         <v>47</v>
       </c>
-      <c r="H48" t="s">
-        <v>48</v>
-      </c>
       <c r="I48" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
       <c r="J48" t="s">
-        <v>443</v>
+        <v>398</v>
       </c>
       <c r="K48" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>446</v>
+        <v>370</v>
       </c>
       <c r="O48" t="s">
-        <v>74</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
+      <c r="R48" t="s"/>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>437</v>
+        <v>371</v>
       </c>
       <c r="X48" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="Y48" t="s">
-        <v>447</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35311</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>403</v>
+      </c>
+      <c r="J49" t="s">
+        <v>404</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="L49" t="s">
+        <v>406</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>407</v>
+      </c>
+      <c r="O49" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>408</v>
+      </c>
+      <c r="X49" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35311</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>411</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>412</v>
+      </c>
+      <c r="J50" t="s">
+        <v>413</v>
+      </c>
+      <c r="K50" t="s">
+        <v>414</v>
+      </c>
+      <c r="L50" t="s">
+        <v>415</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>416</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>417</v>
+      </c>
+      <c r="X50" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35311</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>421</v>
+      </c>
+      <c r="J51" t="s">
+        <v>422</v>
+      </c>
+      <c r="K51" t="s">
+        <v>423</v>
+      </c>
+      <c r="L51" t="s">
+        <v>424</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>425</v>
+      </c>
+      <c r="O51" t="s">
+        <v>98</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>417</v>
+      </c>
+      <c r="X51" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
